--- a/src/main/resources/static/template/用户导入模板.xlsx
+++ b/src/main/resources/static/template/用户导入模板.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{81C18E91-EB9B-4E74-9035-2C15CB43F752}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7DED890D-DB67-4C00-8344-CA9704D730A2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,7 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/static/template/用户导入模板.xlsx
+++ b/src/main/resources/static/template/用户导入模板.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7DED890D-DB67-4C00-8344-CA9704D730A2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,10 +20,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录名（必填）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>密码（必填）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,34 +37,6 @@
   </si>
   <si>
     <t>部门（必填，必须是系统已经存在）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>角色（必填,必须是系统已经存在（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>多个角色以英文的","分割</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -100,11 +67,43 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>角色（必填,必须是系统已经存在（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多个角色以英文的","分割</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录名（必填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,7 +205,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -223,7 +222,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -298,23 +297,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -350,23 +332,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -542,11 +507,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -555,37 +520,37 @@
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.33203125" customWidth="1"/>
     <col min="7" max="7" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
